--- a/Relaxation/CP_vs_INEPT_ratios.xlsx
+++ b/Relaxation/CP_vs_INEPT_ratios.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE220BD-E1B5-416E-9819-56BE9C32557E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4489F8-7756-4195-BCC4-DE2AE28502BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microspheres</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -117,55 +128,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
+          <c:dLbls>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$A$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Microspheres</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fibrils 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fibrils 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$C$2</c:f>
+              <c:f>Tabelle1!$A$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>30.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.090000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.869999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -176,9 +204,110 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fibrils 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39.869999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3465-4B21-8597-FC5AB9F6B53B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -188,6 +317,124 @@
         <c:overlap val="-27"/>
         <c:axId val="204308160"/>
         <c:axId val="136283904"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fibrils 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="it-IT"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>36.090000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3465-4B21-8597-FC5AB9F6B53B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="204308160"/>
@@ -230,7 +477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="136283904"/>
@@ -303,7 +550,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -335,7 +582,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="204308160"/>
@@ -350,6 +597,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -376,7 +654,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -934,16 +1212,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91678</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167878</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1236,11 +1514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1251,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30.15</v>
       </c>
